--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2269640.487951987</v>
+        <v>2366515.429283581</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11364295.45755719</v>
+        <v>12062936.15886391</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2692031.025175689</v>
+        <v>4184108.078182773</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8544479.545540672</v>
+        <v>8070263.5233297</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>162.1413128972412</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>117.9106857686592</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>4.077484448286962</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>106.9269484398519</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>256.6438019796656</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>139.8060972184445</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>82.38835448483648</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>11.55384732052276</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>64.98987853065989</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>10.74698963171117</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>135.2604010533435</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.77425866795443</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>25.50215320856075</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>200.6335085453936</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>186.9093934377887</v>
       </c>
       <c r="X22" t="n">
-        <v>109.0225944330516</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>135.1999131863811</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2381,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>1.238200743003949</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2482,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>73.53720539716825</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>32.35495547099626</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2558,22 +2560,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>57.92518451681179</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>201.0571355336823</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>78.91636141687309</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>66.06391530585718</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231187</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>87.84875757168729</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>59.35991151980204</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052356</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>351.5702851040083</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403097</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>81.43071945322163</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>105.5233320926187</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>173.7225475908695</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996198</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797744</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433867</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572821</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>68.5937137318691</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870203</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>318.297755152415</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536692</v>
+        <v>118.5482349853173</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>147.2458253011457</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.262802037461</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870202</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>35.60822452391488</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.758705044888</v>
+        <v>330.9101331074395</v>
       </c>
       <c r="C41" t="n">
-        <v>318.297755152415</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>145.9104854763839</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231189</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988205</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797715</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870203</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>216.8654139413063</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>85.97636447956994</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>186.9625385917861</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>101.9868609897555</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>83.85990871385378</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1311.909787855439</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C11" t="n">
-        <v>942.947270915027</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D11" t="n">
-        <v>942.947270915027</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E11" t="n">
-        <v>779.1681669784198</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5054,37 +5056,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450755</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="Y11" t="n">
-        <v>1698.50962791956</v>
+        <v>2316.694828583083</v>
       </c>
     </row>
     <row r="12">
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>701.1808689801002</v>
+        <v>850.4935808376455</v>
       </c>
       <c r="C13" t="n">
-        <v>532.2446860521933</v>
+        <v>681.5573979097386</v>
       </c>
       <c r="D13" t="n">
-        <v>382.1280466398576</v>
+        <v>531.4407584974028</v>
       </c>
       <c r="E13" t="n">
-        <v>234.2149530574645</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218343</v>
@@ -5221,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1729.457072219908</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T13" t="n">
-        <v>1507.690456789434</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U13" t="n">
-        <v>1218.587589915078</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="V13" t="n">
-        <v>1218.587589915078</v>
+        <v>1480.924175709433</v>
       </c>
       <c r="W13" t="n">
-        <v>929.1704198781175</v>
+        <v>1480.924175709433</v>
       </c>
       <c r="X13" t="n">
-        <v>701.1808689801002</v>
+        <v>1252.934624811415</v>
       </c>
       <c r="Y13" t="n">
-        <v>701.1808689801002</v>
+        <v>1032.142045667885</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1274.53911114974</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>905.5765942093287</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>547.3108956025783</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>547.3108956025783</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
         <v>406.0926155839475</v>
@@ -5273,13 +5275,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,40 +5290,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W14" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X14" t="n">
-        <v>2051.278283189674</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="Y14" t="n">
-        <v>1661.138951213862</v>
+        <v>2604.403602289789</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.6890873082294</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C16" t="n">
-        <v>590.7529043803225</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D16" t="n">
-        <v>590.7529043803225</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E16" t="n">
-        <v>442.8398107979294</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>295.949863300019</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5461,25 +5463,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1634.107653823834</v>
       </c>
       <c r="U16" t="n">
-        <v>1424.011591242373</v>
+        <v>1634.107653823834</v>
       </c>
       <c r="V16" t="n">
-        <v>1169.327103036487</v>
+        <v>1379.423165617947</v>
       </c>
       <c r="W16" t="n">
-        <v>1169.327103036487</v>
+        <v>1090.005995580987</v>
       </c>
       <c r="X16" t="n">
-        <v>941.3375521384692</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y16" t="n">
-        <v>941.3375521384692</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1930.094988518961</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C17" t="n">
-        <v>1561.13247157855</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>1202.866772971799</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>817.078520373555</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
         <v>406.0926155839475</v>
@@ -5513,19 +5515,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V17" t="n">
-        <v>2690.160586844163</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W17" t="n">
-        <v>2690.160586844163</v>
+        <v>3108.772528910857</v>
       </c>
       <c r="X17" t="n">
-        <v>2316.694828583083</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y17" t="n">
-        <v>2316.694828583083</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="18">
@@ -5586,19 +5588,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>941.4970410294717</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C19" t="n">
-        <v>772.5608581015648</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.623579737024</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.93769556385</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.171080133376</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1424.171080133376</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V19" t="n">
-        <v>1169.486591927489</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.486591927489</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X19" t="n">
-        <v>941.4970410294717</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y19" t="n">
-        <v>941.4970410294717</v>
+        <v>520.9582602004501</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1502.309837160186</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="C20" t="n">
-        <v>1133.347320219774</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="D20" t="n">
-        <v>775.0816216130238</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E20" t="n">
-        <v>775.0816216130238</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F20" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5777,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V20" t="n">
-        <v>2678.274518176917</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W20" t="n">
-        <v>2652.514767461199</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X20" t="n">
-        <v>2279.049009200119</v>
+        <v>1979.605945011733</v>
       </c>
       <c r="Y20" t="n">
-        <v>1888.909677224308</v>
+        <v>1589.466613035921</v>
       </c>
     </row>
     <row r="21">
@@ -5829,13 +5831,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>481.6572696514548</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C22" t="n">
-        <v>481.6572696514548</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D22" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E22" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F22" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
@@ -5932,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>1101.990851592604</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>812.5736815556431</v>
+        <v>781.2573262957244</v>
       </c>
       <c r="X22" t="n">
-        <v>702.449848794985</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="Y22" t="n">
-        <v>481.6572696514548</v>
+        <v>553.2677753977071</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1594.215454734144</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C23" t="n">
-        <v>1594.215454734144</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D23" t="n">
-        <v>1235.949756127394</v>
+        <v>953.6440892486874</v>
       </c>
       <c r="E23" t="n">
-        <v>1235.949756127394</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F23" t="n">
-        <v>824.963851337786</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8914011827824</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>112.3078007915497</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>70.3109020310184</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>259.1900329900438</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>779.1499010228044</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
-        <v>1230.184114271213</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1763.716018943138</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2310.49483600192</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2813.467306881257</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3208.241673238435</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3456.528034994118</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3515.54510155092</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3515.54510155092</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3309.567353935142</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>3056.036877208979</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2724.973989865408</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>2372.205334595294</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X23" t="n">
-        <v>2370.954626774077</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y23" t="n">
-        <v>1980.815294798266</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1892.035413498688</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>1717.582384217561</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>1568.647974556309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>1409.410519550854</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>1262.875961577739</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>1126.512861410357</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>1036.010967048225</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>1017.003675449763</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>1110.68094494038</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>1348.945143920727</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>1715.643304233392</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
-        <v>2162.919629455708</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>2636.442673010163</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>3047.403952428218</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>3357.90354390432</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>3515.54510155092</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>3515.400748143435</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>3385.962861636915</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>3193.319861314771</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2965.252014449186</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>2730.099906217444</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>2475.862549489242</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>2268.011049283709</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>2060.250750518755</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.4924426332192</v>
+        <v>459.8449442241111</v>
       </c>
       <c r="C25" t="n">
-        <v>612.5562597053123</v>
+        <v>290.9087612962043</v>
       </c>
       <c r="D25" t="n">
-        <v>462.4396202929765</v>
+        <v>140.7921218838685</v>
       </c>
       <c r="E25" t="n">
-        <v>314.5265267105834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>167.636579212673</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>167.636579212673</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>167.636579212673</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>70.3109020310184</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>115.433534477954</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>319.4207174268304</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>635.9805158753265</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>980.1375614748756</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>1321.54593818074</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>1620.875537101154</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>1853.483037534813</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1931.093333687328</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1931.093333687328</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1739.407449514154</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1517.64083408368</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1517.64083408368</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1262.956345877793</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>1230.274572674767</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>1002.285021776749</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y25" t="n">
-        <v>781.4924426332192</v>
+        <v>459.8449442241111</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1703.952940140487</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C26" t="n">
-        <v>1334.990423200076</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D26" t="n">
-        <v>1334.990423200076</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E26" t="n">
-        <v>949.2021706018315</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F26" t="n">
-        <v>538.2162658122239</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G26" t="n">
-        <v>123.1438156572204</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>123.1438156572204</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
-        <v>1635.769886219269</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>2169.301790891193</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2716.080607949976</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>3219.053078829313</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521972</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3947.055176361552</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="T26" t="n">
-        <v>3741.077428745774</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="U26" t="n">
-        <v>3537.989413055186</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V26" t="n">
-        <v>3206.926525711615</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W26" t="n">
-        <v>2854.157870441501</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X26" t="n">
-        <v>2480.692112180421</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y26" t="n">
-        <v>2090.552780204609</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1227.062870902635</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2111.547193875144</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761698</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2029.395255896113</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.243147664371</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936169</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2599.93366031301</v>
+        <v>793.5839474470786</v>
       </c>
       <c r="C28" t="n">
-        <v>2430.997477385103</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D28" t="n">
-        <v>2430.997477385103</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E28" t="n">
-        <v>2430.997477385103</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F28" t="n">
-        <v>2430.997477385103</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G28" t="n">
-        <v>2263.294640759822</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
-        <v>2263.294640759822</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>2196.563413178148</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>2241.686045625083</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>2445.67322857396</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2762.233027022456</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>3106.390072622005</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>3447.79844932787</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3747.128048248283</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3979.735548681942</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>4057.345844834457</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>4057.345844834457</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>4057.345844834457</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>3835.579229403983</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>3546.476362529627</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V28" t="n">
-        <v>3291.79187432374</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W28" t="n">
-        <v>3002.374704286779</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X28" t="n">
-        <v>3002.374704286779</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y28" t="n">
-        <v>2781.582125143249</v>
+        <v>873.2974438277585</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1468.364237198916</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>2305.516762226675</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285457</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164794</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521972</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>2336.007922691473</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>1962.542164430393</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
-        <v>1227.062870902635</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875144</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997847</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2029.395255896113</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2517.474464532006</v>
+        <v>370.0144869816389</v>
       </c>
       <c r="C31" t="n">
-        <v>2395.987914552173</v>
+        <v>370.0144869816389</v>
       </c>
       <c r="D31" t="n">
-        <v>2293.32090808791</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E31" t="n">
-        <v>2192.85744745359</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F31" t="n">
-        <v>2093.417132903753</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G31" t="n">
-        <v>1973.163929226545</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H31" t="n">
-        <v>1874.396375392477</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
-        <v>1824.520331158895</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>1916.148348858238</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>2166.640917059521</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>2529.706100760423</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2920.368531612379</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>3308.28229357065</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3654.11727774347</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3933.230163429536</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>4057.345844834457</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>4014.965020540059</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>3870.728769314958</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>3696.411786832557</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>3454.758552906274</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V31" t="n">
-        <v>3247.523697648461</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W31" t="n">
-        <v>3005.556160559574</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X31" t="n">
-        <v>2825.016242609629</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y31" t="n">
-        <v>2651.673296414172</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>1616.654488422265</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1247.691971481853</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1635.769886219269</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>2169.301790891193</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2716.080607949976</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164794</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521972</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2003.254328486387</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456144</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644874</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032362</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977807</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246657</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572838</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951513</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1227.062870902635</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.547193875144</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2029.395255896113</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965683</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2517.474464532006</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C34" t="n">
-        <v>2395.987914552173</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D34" t="n">
-        <v>2293.32090808791</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E34" t="n">
-        <v>2192.85744745359</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F34" t="n">
-        <v>2093.417132903753</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G34" t="n">
-        <v>1973.163929226545</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H34" t="n">
-        <v>1874.396375392477</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>1824.520331158895</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>1916.148348858238</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>2166.640917059521</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2529.706100760423</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2920.368531612379</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>3308.28229357065</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3654.11727774347</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3933.230163429536</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>4057.345844834457</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>4014.965020540059</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3870.728769314958</v>
+        <v>1845.041296115542</v>
       </c>
       <c r="T34" t="n">
-        <v>3696.411786832557</v>
+        <v>1623.274680685068</v>
       </c>
       <c r="U34" t="n">
-        <v>3454.758552906274</v>
+        <v>1334.171813810711</v>
       </c>
       <c r="V34" t="n">
-        <v>3247.523697648461</v>
+        <v>1079.487325604824</v>
       </c>
       <c r="W34" t="n">
-        <v>3005.556160559574</v>
+        <v>790.0701555678637</v>
       </c>
       <c r="X34" t="n">
-        <v>2825.016242609629</v>
+        <v>562.0806046698464</v>
       </c>
       <c r="Y34" t="n">
-        <v>2651.673296414172</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2018.472742224994</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C35" t="n">
-        <v>1696.959858232656</v>
+        <v>1053.237939387931</v>
       </c>
       <c r="D35" t="n">
-        <v>1386.143792573978</v>
+        <v>694.9722407811803</v>
       </c>
       <c r="E35" t="n">
-        <v>1047.805172923807</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F35" t="n">
-        <v>684.2689010822731</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G35" t="n">
-        <v>316.6460838753429</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3262.764786084339</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U35" t="n">
-        <v>3056.683942306249</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>2773.070687910752</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W35" t="n">
-        <v>2467.751665588711</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X35" t="n">
-        <v>2467.751665588711</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y35" t="n">
-        <v>2125.061966560972</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1785.73444130672</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C37" t="n">
-        <v>1664.247891326886</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D37" t="n">
-        <v>1561.580884862624</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E37" t="n">
-        <v>1461.117424228303</v>
+        <v>135.7986959593239</v>
       </c>
       <c r="F37" t="n">
-        <v>1361.677109678466</v>
+        <v>135.7986959593239</v>
       </c>
       <c r="G37" t="n">
-        <v>1241.423906001258</v>
+        <v>135.7986959593239</v>
       </c>
       <c r="H37" t="n">
-        <v>1142.656352167189</v>
+        <v>135.7986959593239</v>
       </c>
       <c r="I37" t="n">
-        <v>1092.780307933608</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>1184.40832563295</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1434.900893834234</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>1797.966077535136</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2188.628508387092</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2576.542270345363</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>2922.377254518183</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3201.490140204249</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3283.224997314772</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3138.988746089672</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>2964.671763607271</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>2723.018529680988</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>2515.783674423174</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>2273.816137334287</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>2093.276219384343</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1919.933273188886</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2018.472742224994</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C38" t="n">
-        <v>1696.959858232656</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D38" t="n">
-        <v>1386.143792573978</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="E38" t="n">
-        <v>1047.805172923807</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>684.2689010822731</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7199,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3119.52497783108</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>2835.911723435583</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W38" t="n">
-        <v>2687.178566565739</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X38" t="n">
-        <v>2361.162441252732</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y38" t="n">
-        <v>2018.472742224994</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.4662498052943</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9796998254607</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611983</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>434.8492327268785</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>335.4089181770414</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>215.1557144998337</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3881606657648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>158.1401341315256</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328087</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>771.6978860337113</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>1162.360316885667</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>1550.274078843938</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>1896.109063016758</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>2175.221948702824</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>2299.337630107745</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>2256.956805813346</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.720554588246</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T40" t="n">
-        <v>1938.403572105846</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U40" t="n">
-        <v>1696.750338179563</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V40" t="n">
-        <v>1489.515482921749</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.547945832862</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="X40" t="n">
-        <v>1067.008027882918</v>
+        <v>1065.68718486776</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874608</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1459.895634131917</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C41" t="n">
-        <v>1138.382750139579</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D41" t="n">
-        <v>827.5666844809014</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E41" t="n">
-        <v>680.1823557168772</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>316.6460838753429</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>316.6460838753429</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,16 +7411,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7436,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3056.683942306249</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2773.070687910752</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W41" t="n">
-        <v>2467.751665588711</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X41" t="n">
-        <v>2141.735540275704</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y41" t="n">
-        <v>1799.045841247965</v>
+        <v>2251.634947019674</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.4662498052949</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9796998254612</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611989</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268785</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F43" t="n">
-        <v>335.4089181770414</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G43" t="n">
-        <v>215.1557144998337</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3881606657648</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>158.1401341315256</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>408.6327023328087</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337115</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>1162.360316885667</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>1550.274078843938</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1896.109063016758</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>2175.221948702824</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>2299.337630107746</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>2256.956805813347</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.720554588247</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1938.403572105846</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1696.750338179563</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1489.515482921749</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W43" t="n">
-        <v>1247.547945832862</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="X43" t="n">
-        <v>1067.008027882918</v>
+        <v>996.7496307124713</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.6650816874612</v>
+        <v>777.6936570343842</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1878.169188758594</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C44" t="n">
-        <v>1509.206671818182</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G44" t="n">
         <v>108.5090151927147</v>
@@ -7646,10 +7648,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7673,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.308520734406</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.169188758594</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>385.5649387724261</v>
+        <v>1861.97070162018</v>
       </c>
       <c r="C46" t="n">
-        <v>216.6287558445192</v>
+        <v>1861.97070162018</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218342</v>
+        <v>1861.97070162018</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218342</v>
+        <v>1714.057608037787</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U46" t="n">
-        <v>1424.011591242373</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V46" t="n">
-        <v>1169.327103036486</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="W46" t="n">
-        <v>879.9099329995254</v>
+        <v>2492.401296491967</v>
       </c>
       <c r="X46" t="n">
-        <v>651.920382101508</v>
+        <v>2264.411745593949</v>
       </c>
       <c r="Y46" t="n">
-        <v>567.2134036026658</v>
+        <v>2043.619166450419</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>111.3760925029326</v>
       </c>
       <c r="K2" t="n">
-        <v>202.1809638361346</v>
+        <v>115.672862857036</v>
       </c>
       <c r="L2" t="n">
-        <v>213.5488567752802</v>
+        <v>106.2279079411531</v>
       </c>
       <c r="M2" t="n">
-        <v>205.6249188705004</v>
+        <v>86.20968475950812</v>
       </c>
       <c r="N2" t="n">
-        <v>204.2917325281876</v>
+        <v>82.94423508449586</v>
       </c>
       <c r="O2" t="n">
-        <v>206.3768508508745</v>
+        <v>91.79185002470322</v>
       </c>
       <c r="P2" t="n">
-        <v>210.9873633211545</v>
+        <v>113.1917161337045</v>
       </c>
       <c r="Q2" t="n">
-        <v>207.1020630664798</v>
+        <v>133.6616048283648</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>85.3427639113128</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>66.92010932096018</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>43.19189982519269</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>30.85051777249912</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>17.11285239577332</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>38.0991542494822</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>50.10627990666592</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>83.9181518943025</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>86.23379249476895</v>
       </c>
       <c r="L4" t="n">
-        <v>125.4955336943436</v>
+        <v>80.14168867079349</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0262495446562</v>
+        <v>81.20697904563005</v>
       </c>
       <c r="N4" t="n">
-        <v>118.0213988638391</v>
+        <v>71.33916373595486</v>
       </c>
       <c r="O4" t="n">
-        <v>129.5301358016631</v>
+        <v>86.4115359223579</v>
       </c>
       <c r="P4" t="n">
-        <v>130.0899244982092</v>
+        <v>93.19451333315413</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>188.0207013564789</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>137.5908801368501</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10115,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>306.6874953089239</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>137.59088013685</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -22559,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>14.48187344321937</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>219.7890571750206</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>268.3272528873944</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>142.3564781982822</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>82.84207689159004</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>126.090039683815</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,13 +23503,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>267.0699485232669</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>83.63745377419174</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>207.9951019556464</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>262.762379939475</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>338.4939790857018</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>44.57157912859384</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1578940020929025</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>323.7388155088523</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>169.0975921330755</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>99.61360489880235</v>
       </c>
       <c r="X22" t="n">
-        <v>116.6870609559856</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24212,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>246.7304568858807</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>368.4928999354651</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24370,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>72.89675724940092</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24382,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>254.1680428655947</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24446,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>51.26257727136404</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>49.93803642521965</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>100.9156187650642</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>30.28850510398091</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24680,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24740,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>261.3922111457257</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>89.25556149841032</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24920,10 +24922,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3.112756516674665</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24932,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>108.3383058782203</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>230.2353729522693</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>208.2078224813923</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>27.75870667796899</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>263.3821350869445</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>155.0200067976747</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>182.9764288281799</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>51.82370855604108</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>189.0447479772853</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1.719239410788504</v>
       </c>
     </row>
     <row r="44">
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>296.7574771839106</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>167.7205030288968</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>43.4341870331757</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>134.724744638241</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>862479.3811074432</v>
+        <v>823636.7800536766</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658263.535449959</v>
+        <v>658263.5354499588</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>658263.5354499589</v>
+        <v>658263.535449959</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>658263.5354499589</v>
+        <v>658263.535449959</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678559.4605172377</v>
+        <v>658263.5354499589</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>736453.4742802198</v>
+        <v>658263.5354499589</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>814863.4456308214</v>
+        <v>658263.535449959</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>814863.4456308214</v>
+        <v>658263.5354499588</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>736673.5068005603</v>
+        <v>658263.5354499589</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>736673.5068005603</v>
+        <v>658263.5354499589</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>736673.5068005602</v>
+        <v>658263.535449959</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655430.0364163748</v>
+        <v>655473.3435977295</v>
       </c>
       <c r="C2" t="n">
         <v>655481.1746633911</v>
       </c>
       <c r="D2" t="n">
-        <v>655487.8348501151</v>
+        <v>655487.834850115</v>
       </c>
       <c r="E2" t="n">
-        <v>545595.358353473</v>
+        <v>545595.3583534729</v>
       </c>
       <c r="F2" t="n">
+        <v>545595.3583534728</v>
+      </c>
+      <c r="G2" t="n">
         <v>545595.3583534729</v>
       </c>
-      <c r="G2" t="n">
-        <v>545595.3583534734</v>
-      </c>
       <c r="H2" t="n">
+        <v>545595.3583534727</v>
+      </c>
+      <c r="I2" t="n">
+        <v>545595.3583534728</v>
+      </c>
+      <c r="J2" t="n">
+        <v>545595.3583534729</v>
+      </c>
+      <c r="K2" t="n">
+        <v>545595.3583534732</v>
+      </c>
+      <c r="L2" t="n">
         <v>545595.3583534731</v>
       </c>
-      <c r="I2" t="n">
-        <v>557330.2507664323</v>
-      </c>
-      <c r="J2" t="n">
-        <v>590803.9663330255</v>
-      </c>
-      <c r="K2" t="n">
-        <v>656833.4158914252</v>
-      </c>
-      <c r="L2" t="n">
-        <v>656833.4158914253</v>
-      </c>
       <c r="M2" t="n">
-        <v>611624.8079118729</v>
+        <v>545595.3583534728</v>
       </c>
       <c r="N2" t="n">
-        <v>611624.8079118738</v>
+        <v>545595.3583534729</v>
       </c>
       <c r="O2" t="n">
-        <v>611624.8079118729</v>
+        <v>545595.3583534727</v>
       </c>
       <c r="P2" t="n">
-        <v>545595.3583534725</v>
+        <v>545595.3583534728</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33746.9421053385</v>
+        <v>196760.0786190581</v>
       </c>
       <c r="C3" t="n">
-        <v>181900.7422242496</v>
+        <v>27855.40645598363</v>
       </c>
       <c r="D3" t="n">
         <v>22280.77012981693</v>
       </c>
       <c r="E3" t="n">
-        <v>914243.4502001549</v>
+        <v>914243.4502001548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12627.21081534751</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>35439.72841891944</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>37580.10929487406</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>161600.4331051144</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>426545.3567024024</v>
+        <v>380921.8743427963</v>
       </c>
       <c r="C4" t="n">
         <v>372681.4073629099</v>
       </c>
       <c r="D4" t="n">
-        <v>365935.2983003608</v>
+        <v>365935.2983003609</v>
       </c>
       <c r="E4" t="n">
         <v>10990.29103211607</v>
       </c>
       <c r="F4" t="n">
-        <v>10990.29103211607</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="G4" t="n">
         <v>10990.29103211609</v>
@@ -26436,25 +26438,25 @@
         <v>10990.29103211609</v>
       </c>
       <c r="I4" t="n">
-        <v>17373.48103074774</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="J4" t="n">
-        <v>35581.49512261594</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="K4" t="n">
-        <v>82806.76150409841</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409841</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="M4" t="n">
-        <v>58215.55741359856</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="N4" t="n">
-        <v>58215.55741359856</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="O4" t="n">
-        <v>58215.55741359856</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="P4" t="n">
         <v>10990.29103211609</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34391.06348367693</v>
+        <v>38078.94064598077</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26479,7 +26481,7 @@
         <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26488,25 +26490,25 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>77193.41761650788</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>85428.78891441764</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>78255.49332178176</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>78255.49332178176</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>78255.49332178176</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160746.6741249571</v>
+        <v>39712.44998989423</v>
       </c>
       <c r="C6" t="n">
-        <v>62153.22024508496</v>
+        <v>216198.5560133509</v>
       </c>
       <c r="D6" t="n">
-        <v>227958.8050630566</v>
+        <v>227958.8050630565</v>
       </c>
       <c r="E6" t="n">
         <v>-453944.7234401912</v>
       </c>
       <c r="F6" t="n">
+        <v>460298.7267599637</v>
+      </c>
+      <c r="G6" t="n">
         <v>460298.7267599636</v>
       </c>
-      <c r="G6" t="n">
-        <v>460298.7267599641</v>
-      </c>
       <c r="H6" t="n">
+        <v>460298.7267599633</v>
+      </c>
+      <c r="I6" t="n">
+        <v>460298.7267599634</v>
+      </c>
+      <c r="J6" t="n">
+        <v>460298.7267599636</v>
+      </c>
+      <c r="K6" t="n">
+        <v>460298.7267599639</v>
+      </c>
+      <c r="L6" t="n">
         <v>460298.7267599638</v>
       </c>
-      <c r="I6" t="n">
-        <v>450136.1413038292</v>
-      </c>
-      <c r="J6" t="n">
-        <v>434353.9538770724</v>
-      </c>
-      <c r="K6" t="n">
-        <v>447068.6034176467</v>
-      </c>
-      <c r="L6" t="n">
-        <v>484648.7127125208</v>
-      </c>
       <c r="M6" t="n">
-        <v>313553.3240713781</v>
+        <v>253110.1584678904</v>
       </c>
       <c r="N6" t="n">
-        <v>475153.7571764935</v>
+        <v>460298.7267599636</v>
       </c>
       <c r="O6" t="n">
-        <v>475153.7571764926</v>
+        <v>460298.7267599633</v>
       </c>
       <c r="P6" t="n">
-        <v>460298.7267599632</v>
+        <v>460298.7267599634</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>204.1899378890261</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26747,7 +26749,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="I4" t="n">
-        <v>878.8862753877301</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1014.336461208614</v>
-      </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>204.1899378890261</v>
       </c>
       <c r="C3" t="n">
-        <v>199.7587774068689</v>
+        <v>30.59010023696811</v>
       </c>
       <c r="D3" t="n">
         <v>26.01635439147063</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>47.48481998543746</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>135.4501858208843</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>331.0681279392606</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>178.8295274378765</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>98.30551518367616</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>190.3146295474667</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>219.5025170893205</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>251.2799837820832</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27470,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>136.9043161647324</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>107.9936872248773</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>74.27501952661456</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>72.88884584361432</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>163.5252051891206</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>198.3944404597271</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>225.9124872784434</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27549,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>167.6227679950523</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>158.9534387491532</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>144.3773550168173</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>67.32663672383744</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>55.32936263045145</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>160.7372695280035</v>
       </c>
       <c r="S4" t="n">
-        <v>222.9160118599466</v>
+        <v>217.5996781856073</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>226.3723226937267</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>286.2989451003051</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.8208640719156821</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>8.406674176506481</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>31.64636213252937</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>69.66981202375369</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>104.4169881879445</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>129.5385070288341</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>144.1365484677646</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>146.4688285120951</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>138.3063613969835</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>118.0412796215651</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>88.64408504608468</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>51.56360275747351</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>18.70544003877863</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>3.5933324748109</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.06566912575325455</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.4392009984782825</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>4.241757011619203</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>15.12161332480052</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>41.49486275535389</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>70.92132965339881</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>95.36247995468149</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>111.2835161495192</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>114.22885968756</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>104.4970901949622</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>83.86812750766433</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>56.06362219171902</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>27.26898830902882</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>8.157965914717217</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>1.77028823509448</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.02889480253146597</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.3682113634064405</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>3.273733758286355</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>11.07311991044096</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>26.03254339283534</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>42.77946567576643</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>54.7429876104448</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>57.71880490197501</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>56.34638072927833</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>52.04500252948489</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>44.53349071599347</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>30.83268062124294</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>16.55612184916594</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>6.416919851364964</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>1.573266734554791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.02008425618580587</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32245,7 +32247,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
         <v>738.1512123099059</v>
@@ -32549,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -33035,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33260,7 +33262,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33515,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33734,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33907,7 +33909,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
         <v>629.9949819746414</v>
@@ -34144,7 +34146,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P41" t="n">
         <v>629.9949819746414</v>
@@ -34366,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34454,7 +34456,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36358,7 +36360,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>525.2119879118794</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36379,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36610,7 +36612,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>536.352866356222</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36683,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36835,10 +36837,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>845.6086111391506</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.5535532316588</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,7 +37083,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>645.6438810250692</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37163,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316588</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.5535532316588</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,10 +37557,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38102,7 +38104,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
